--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Gdf9-Bmpr2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Gdf9-Bmpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Bmpr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.354994089171382</v>
+        <v>1.581182666666667</v>
       </c>
       <c r="H2">
-        <v>0.354994089171382</v>
+        <v>4.743548</v>
       </c>
       <c r="I2">
-        <v>0.4343941510035617</v>
+        <v>0.2313516192010878</v>
       </c>
       <c r="J2">
-        <v>0.4343941510035617</v>
+        <v>0.2313516192010878</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.0577735432899</v>
+        <v>44.547044</v>
       </c>
       <c r="N2">
-        <v>44.0577735432899</v>
+        <v>133.641132</v>
       </c>
       <c r="O2">
-        <v>0.3100752739941156</v>
+        <v>0.3085128263790582</v>
       </c>
       <c r="P2">
-        <v>0.3100752739941156</v>
+        <v>0.3085128263790582</v>
       </c>
       <c r="Q2">
-        <v>15.64024918991921</v>
+        <v>70.43701382403734</v>
       </c>
       <c r="R2">
-        <v>15.64024918991921</v>
+        <v>633.933124416336</v>
       </c>
       <c r="S2">
-        <v>0.1346948853938706</v>
+        <v>0.07137494192709919</v>
       </c>
       <c r="T2">
-        <v>0.1346948853938706</v>
+        <v>0.07137494192709919</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.354994089171382</v>
+        <v>1.581182666666667</v>
       </c>
       <c r="H3">
-        <v>0.354994089171382</v>
+        <v>4.743548</v>
       </c>
       <c r="I3">
-        <v>0.4343941510035617</v>
+        <v>0.2313516192010878</v>
       </c>
       <c r="J3">
-        <v>0.4343941510035617</v>
+        <v>0.2313516192010878</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>40.1851757487208</v>
+        <v>40.23702866666667</v>
       </c>
       <c r="N3">
-        <v>40.1851757487208</v>
+        <v>120.711086</v>
       </c>
       <c r="O3">
-        <v>0.2828202239621354</v>
+        <v>0.2786635952555802</v>
       </c>
       <c r="P3">
-        <v>0.2828202239621354</v>
+        <v>0.2786635952555802</v>
       </c>
       <c r="Q3">
-        <v>14.26549986310905</v>
+        <v>63.62209228590311</v>
       </c>
       <c r="R3">
-        <v>14.26549986310905</v>
+        <v>572.598830573128</v>
       </c>
       <c r="S3">
-        <v>0.122855451074669</v>
+        <v>0.06446927397477503</v>
       </c>
       <c r="T3">
-        <v>0.122855451074669</v>
+        <v>0.06446927397477506</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.354994089171382</v>
+        <v>1.581182666666667</v>
       </c>
       <c r="H4">
-        <v>0.354994089171382</v>
+        <v>4.743548</v>
       </c>
       <c r="I4">
-        <v>0.4343941510035617</v>
+        <v>0.2313516192010878</v>
       </c>
       <c r="J4">
-        <v>0.4343941510035617</v>
+        <v>0.2313516192010878</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.0832614624494</v>
+        <v>20.15970133333333</v>
       </c>
       <c r="N4">
-        <v>20.0832614624494</v>
+        <v>60.47910400000001</v>
       </c>
       <c r="O4">
-        <v>0.1413444734002655</v>
+        <v>0.13961704029799</v>
       </c>
       <c r="P4">
-        <v>0.1413444734002655</v>
+        <v>0.13961704029799</v>
       </c>
       <c r="Q4">
-        <v>7.129439110452942</v>
+        <v>31.87617031344356</v>
       </c>
       <c r="R4">
-        <v>7.129439110452942</v>
+        <v>286.885532820992</v>
       </c>
       <c r="S4">
-        <v>0.06139921252175385</v>
+        <v>0.03230062834100351</v>
       </c>
       <c r="T4">
-        <v>0.06139921252175385</v>
+        <v>0.03230062834100353</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.354994089171382</v>
+        <v>1.581182666666667</v>
       </c>
       <c r="H5">
-        <v>0.354994089171382</v>
+        <v>4.743548</v>
       </c>
       <c r="I5">
-        <v>0.4343941510035617</v>
+        <v>0.2313516192010878</v>
       </c>
       <c r="J5">
-        <v>0.4343941510035617</v>
+        <v>0.2313516192010878</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.3546314108948</v>
+        <v>23.39142333333333</v>
       </c>
       <c r="N5">
-        <v>23.3546314108948</v>
+        <v>70.17426999999999</v>
       </c>
       <c r="O5">
-        <v>0.1643681273782322</v>
+        <v>0.1619984959180618</v>
       </c>
       <c r="P5">
-        <v>0.1643681273782322</v>
+        <v>0.1619984959180618</v>
       </c>
       <c r="Q5">
-        <v>8.290756105643947</v>
+        <v>36.98611312332888</v>
       </c>
       <c r="R5">
-        <v>8.290756105643947</v>
+        <v>332.87501810996</v>
       </c>
       <c r="S5">
-        <v>0.07140055314451248</v>
+        <v>0.0374786143387844</v>
       </c>
       <c r="T5">
-        <v>0.07140055314451248</v>
+        <v>0.0374786143387844</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.354994089171382</v>
+        <v>1.581182666666667</v>
       </c>
       <c r="H6">
-        <v>0.354994089171382</v>
+        <v>4.743548</v>
       </c>
       <c r="I6">
-        <v>0.4343941510035617</v>
+        <v>0.2313516192010878</v>
       </c>
       <c r="J6">
-        <v>0.4343941510035617</v>
+        <v>0.2313516192010878</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.4065064186731</v>
+        <v>16.05764533333333</v>
       </c>
       <c r="N6">
-        <v>14.4065064186731</v>
+        <v>48.172936</v>
       </c>
       <c r="O6">
-        <v>0.1013919012652512</v>
+        <v>0.1112080421493099</v>
       </c>
       <c r="P6">
-        <v>0.1013919012652512</v>
+        <v>0.1112080421493099</v>
       </c>
       <c r="Q6">
-        <v>5.114224624238525</v>
+        <v>25.39007046854756</v>
       </c>
       <c r="R6">
-        <v>5.114224624238525</v>
+        <v>228.510634216928</v>
       </c>
       <c r="S6">
-        <v>0.04404404886875576</v>
+        <v>0.02572816061942566</v>
       </c>
       <c r="T6">
-        <v>0.04404404886875576</v>
+        <v>0.02572816061942566</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.462222460248666</v>
+        <v>4.376645666666667</v>
       </c>
       <c r="H7">
-        <v>0.462222460248666</v>
+        <v>13.129937</v>
       </c>
       <c r="I7">
-        <v>0.5656058489964383</v>
+        <v>0.6403713391238527</v>
       </c>
       <c r="J7">
-        <v>0.5656058489964383</v>
+        <v>0.6403713391238528</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>44.0577735432899</v>
+        <v>44.547044</v>
       </c>
       <c r="N7">
-        <v>44.0577735432899</v>
+        <v>133.641132</v>
       </c>
       <c r="O7">
-        <v>0.3100752739941156</v>
+        <v>0.3085128263790582</v>
       </c>
       <c r="P7">
-        <v>0.3100752739941156</v>
+        <v>0.3085128263790582</v>
       </c>
       <c r="Q7">
-        <v>20.36449248025804</v>
+        <v>194.9666270854093</v>
       </c>
       <c r="R7">
-        <v>20.36449248025804</v>
+        <v>1754.699643768684</v>
       </c>
       <c r="S7">
-        <v>0.175380388600245</v>
+        <v>0.1975627717652421</v>
       </c>
       <c r="T7">
-        <v>0.175380388600245</v>
+        <v>0.1975627717652422</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.462222460248666</v>
+        <v>4.376645666666667</v>
       </c>
       <c r="H8">
-        <v>0.462222460248666</v>
+        <v>13.129937</v>
       </c>
       <c r="I8">
-        <v>0.5656058489964383</v>
+        <v>0.6403713391238527</v>
       </c>
       <c r="J8">
-        <v>0.5656058489964383</v>
+        <v>0.6403713391238528</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>40.1851757487208</v>
+        <v>40.23702866666667</v>
       </c>
       <c r="N8">
-        <v>40.1851757487208</v>
+        <v>120.711086</v>
       </c>
       <c r="O8">
-        <v>0.2828202239621354</v>
+        <v>0.2786635952555802</v>
       </c>
       <c r="P8">
-        <v>0.2828202239621354</v>
+        <v>0.2786635952555802</v>
       </c>
       <c r="Q8">
-        <v>18.57449080009876</v>
+        <v>176.1032171535091</v>
       </c>
       <c r="R8">
-        <v>18.57449080009876</v>
+        <v>1584.928954381582</v>
       </c>
       <c r="S8">
-        <v>0.1599647728874664</v>
+        <v>0.1784481796588832</v>
       </c>
       <c r="T8">
-        <v>0.1599647728874664</v>
+        <v>0.1784481796588832</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.462222460248666</v>
+        <v>4.376645666666667</v>
       </c>
       <c r="H9">
-        <v>0.462222460248666</v>
+        <v>13.129937</v>
       </c>
       <c r="I9">
-        <v>0.5656058489964383</v>
+        <v>0.6403713391238527</v>
       </c>
       <c r="J9">
-        <v>0.5656058489964383</v>
+        <v>0.6403713391238528</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.0832614624494</v>
+        <v>20.15970133333333</v>
       </c>
       <c r="N9">
-        <v>20.0832614624494</v>
+        <v>60.47910400000001</v>
       </c>
       <c r="O9">
-        <v>0.1413444734002655</v>
+        <v>0.13961704029799</v>
       </c>
       <c r="P9">
-        <v>0.1413444734002655</v>
+        <v>0.13961704029799</v>
       </c>
       <c r="Q9">
-        <v>9.282934522990583</v>
+        <v>88.23186948182756</v>
       </c>
       <c r="R9">
-        <v>9.282934522990583</v>
+        <v>794.0868253364481</v>
       </c>
       <c r="S9">
-        <v>0.07994526087851167</v>
+        <v>0.08940675106013278</v>
       </c>
       <c r="T9">
-        <v>0.07994526087851167</v>
+        <v>0.08940675106013281</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.462222460248666</v>
+        <v>4.376645666666667</v>
       </c>
       <c r="H10">
-        <v>0.462222460248666</v>
+        <v>13.129937</v>
       </c>
       <c r="I10">
-        <v>0.5656058489964383</v>
+        <v>0.6403713391238527</v>
       </c>
       <c r="J10">
-        <v>0.5656058489964383</v>
+        <v>0.6403713391238528</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.3546314108948</v>
+        <v>23.39142333333333</v>
       </c>
       <c r="N10">
-        <v>23.3546314108948</v>
+        <v>70.17426999999999</v>
       </c>
       <c r="O10">
-        <v>0.1643681273782322</v>
+        <v>0.1619984959180618</v>
       </c>
       <c r="P10">
-        <v>0.1643681273782322</v>
+        <v>0.1619984959180618</v>
       </c>
       <c r="Q10">
-        <v>10.79503518894457</v>
+        <v>102.3759715689989</v>
       </c>
       <c r="R10">
-        <v>10.79503518894457</v>
+        <v>921.3837441209899</v>
       </c>
       <c r="S10">
-        <v>0.09296757423371975</v>
+        <v>0.1037391937670992</v>
       </c>
       <c r="T10">
-        <v>0.09296757423371975</v>
+        <v>0.1037391937670992</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,681 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>4.376645666666667</v>
+      </c>
+      <c r="H11">
+        <v>13.129937</v>
+      </c>
+      <c r="I11">
+        <v>0.6403713391238527</v>
+      </c>
+      <c r="J11">
+        <v>0.6403713391238528</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>16.05764533333333</v>
+      </c>
+      <c r="N11">
+        <v>48.172936</v>
+      </c>
+      <c r="O11">
+        <v>0.1112080421493099</v>
+      </c>
+      <c r="P11">
+        <v>0.1112080421493099</v>
+      </c>
+      <c r="Q11">
+        <v>70.27862386500355</v>
+      </c>
+      <c r="R11">
+        <v>632.507614785032</v>
+      </c>
+      <c r="S11">
+        <v>0.07121444287249541</v>
+      </c>
+      <c r="T11">
+        <v>0.07121444287249543</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.3807653333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.142296</v>
+      </c>
+      <c r="I12">
+        <v>0.05571189101637125</v>
+      </c>
+      <c r="J12">
+        <v>0.05571189101637125</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>44.547044</v>
+      </c>
+      <c r="N12">
+        <v>133.641132</v>
+      </c>
+      <c r="O12">
+        <v>0.3085128263790582</v>
+      </c>
+      <c r="P12">
+        <v>0.3085128263790582</v>
+      </c>
+      <c r="Q12">
+        <v>16.96197005767467</v>
+      </c>
+      <c r="R12">
+        <v>152.657730519072</v>
+      </c>
+      <c r="S12">
+        <v>0.01718783296038276</v>
+      </c>
+      <c r="T12">
+        <v>0.01718783296038276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.3807653333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.142296</v>
+      </c>
+      <c r="I13">
+        <v>0.05571189101637125</v>
+      </c>
+      <c r="J13">
+        <v>0.05571189101637125</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>40.23702866666667</v>
+      </c>
+      <c r="N13">
+        <v>120.711086</v>
+      </c>
+      <c r="O13">
+        <v>0.2786635952555802</v>
+      </c>
+      <c r="P13">
+        <v>0.2786635952555802</v>
+      </c>
+      <c r="Q13">
+        <v>15.32086563260622</v>
+      </c>
+      <c r="R13">
+        <v>137.887790693456</v>
+      </c>
+      <c r="S13">
+        <v>0.01552487584910907</v>
+      </c>
+      <c r="T13">
+        <v>0.01552487584910907</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.3807653333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.142296</v>
+      </c>
+      <c r="I14">
+        <v>0.05571189101637125</v>
+      </c>
+      <c r="J14">
+        <v>0.05571189101637125</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>20.15970133333333</v>
+      </c>
+      <c r="N14">
+        <v>60.47910400000001</v>
+      </c>
+      <c r="O14">
+        <v>0.13961704029799</v>
+      </c>
+      <c r="P14">
+        <v>0.13961704029799</v>
+      </c>
+      <c r="Q14">
+        <v>7.676115398087112</v>
+      </c>
+      <c r="R14">
+        <v>69.08503858278401</v>
+      </c>
+      <c r="S14">
+        <v>0.007778329333109933</v>
+      </c>
+      <c r="T14">
+        <v>0.007778329333109934</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.3807653333333333</v>
+      </c>
+      <c r="H15">
+        <v>1.142296</v>
+      </c>
+      <c r="I15">
+        <v>0.05571189101637125</v>
+      </c>
+      <c r="J15">
+        <v>0.05571189101637125</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>23.39142333333333</v>
+      </c>
+      <c r="N15">
+        <v>70.17426999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.1619984959180618</v>
+      </c>
+      <c r="P15">
+        <v>0.1619984959180618</v>
+      </c>
+      <c r="Q15">
+        <v>8.906643102657778</v>
+      </c>
+      <c r="R15">
+        <v>80.15978792391999</v>
+      </c>
+      <c r="S15">
+        <v>0.00902524254940312</v>
+      </c>
+      <c r="T15">
+        <v>0.00902524254940312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.3807653333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.142296</v>
+      </c>
+      <c r="I16">
+        <v>0.05571189101637125</v>
+      </c>
+      <c r="J16">
+        <v>0.05571189101637125</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>16.05764533333333</v>
+      </c>
+      <c r="N16">
+        <v>48.172936</v>
+      </c>
+      <c r="O16">
+        <v>0.1112080421493099</v>
+      </c>
+      <c r="P16">
+        <v>0.1112080421493099</v>
+      </c>
+      <c r="Q16">
+        <v>6.114194677895111</v>
+      </c>
+      <c r="R16">
+        <v>55.027752101056</v>
+      </c>
+      <c r="S16">
+        <v>0.006195610324366371</v>
+      </c>
+      <c r="T16">
+        <v>0.006195610324366371</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4959496666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.487849</v>
+      </c>
+      <c r="I17">
+        <v>0.07256515065868824</v>
+      </c>
+      <c r="J17">
+        <v>0.07256515065868825</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>44.547044</v>
+      </c>
+      <c r="N17">
+        <v>133.641132</v>
+      </c>
+      <c r="O17">
+        <v>0.3085128263790582</v>
+      </c>
+      <c r="P17">
+        <v>0.3085128263790582</v>
+      </c>
+      <c r="Q17">
+        <v>22.09309162278533</v>
+      </c>
+      <c r="R17">
+        <v>198.837824605068</v>
+      </c>
+      <c r="S17">
+        <v>0.02238727972633409</v>
+      </c>
+      <c r="T17">
+        <v>0.02238727972633409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.462222460248666</v>
-      </c>
-      <c r="H11">
-        <v>0.462222460248666</v>
-      </c>
-      <c r="I11">
-        <v>0.5656058489964383</v>
-      </c>
-      <c r="J11">
-        <v>0.5656058489964383</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>14.4065064186731</v>
-      </c>
-      <c r="N11">
-        <v>14.4065064186731</v>
-      </c>
-      <c r="O11">
-        <v>0.1013919012652512</v>
-      </c>
-      <c r="P11">
-        <v>0.1013919012652512</v>
-      </c>
-      <c r="Q11">
-        <v>6.659010840427278</v>
-      </c>
-      <c r="R11">
-        <v>6.659010840427278</v>
-      </c>
-      <c r="S11">
-        <v>0.05734785239649546</v>
-      </c>
-      <c r="T11">
-        <v>0.05734785239649546</v>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.4959496666666667</v>
+      </c>
+      <c r="H18">
+        <v>1.487849</v>
+      </c>
+      <c r="I18">
+        <v>0.07256515065868824</v>
+      </c>
+      <c r="J18">
+        <v>0.07256515065868825</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>40.23702866666667</v>
+      </c>
+      <c r="N18">
+        <v>120.711086</v>
+      </c>
+      <c r="O18">
+        <v>0.2786635952555802</v>
+      </c>
+      <c r="P18">
+        <v>0.2786635952555802</v>
+      </c>
+      <c r="Q18">
+        <v>19.95554095489044</v>
+      </c>
+      <c r="R18">
+        <v>179.599868594014</v>
+      </c>
+      <c r="S18">
+        <v>0.0202212657728129</v>
+      </c>
+      <c r="T18">
+        <v>0.0202212657728129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.4959496666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.487849</v>
+      </c>
+      <c r="I19">
+        <v>0.07256515065868824</v>
+      </c>
+      <c r="J19">
+        <v>0.07256515065868825</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>20.15970133333333</v>
+      </c>
+      <c r="N19">
+        <v>60.47910400000001</v>
+      </c>
+      <c r="O19">
+        <v>0.13961704029799</v>
+      </c>
+      <c r="P19">
+        <v>0.13961704029799</v>
+      </c>
+      <c r="Q19">
+        <v>9.998197156366222</v>
+      </c>
+      <c r="R19">
+        <v>89.98377440729601</v>
+      </c>
+      <c r="S19">
+        <v>0.01013133156374379</v>
+      </c>
+      <c r="T19">
+        <v>0.0101313315637438</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.4959496666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.487849</v>
+      </c>
+      <c r="I20">
+        <v>0.07256515065868824</v>
+      </c>
+      <c r="J20">
+        <v>0.07256515065868825</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>23.39142333333333</v>
+      </c>
+      <c r="N20">
+        <v>70.17426999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.1619984959180618</v>
+      </c>
+      <c r="P20">
+        <v>0.1619984959180618</v>
+      </c>
+      <c r="Q20">
+        <v>11.60096860502555</v>
+      </c>
+      <c r="R20">
+        <v>104.40871744523</v>
+      </c>
+      <c r="S20">
+        <v>0.01175544526277504</v>
+      </c>
+      <c r="T20">
+        <v>0.01175544526277504</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.4959496666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.487849</v>
+      </c>
+      <c r="I21">
+        <v>0.07256515065868824</v>
+      </c>
+      <c r="J21">
+        <v>0.07256515065868825</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>16.05764533333333</v>
+      </c>
+      <c r="N21">
+        <v>48.172936</v>
+      </c>
+      <c r="O21">
+        <v>0.1112080421493099</v>
+      </c>
+      <c r="P21">
+        <v>0.1112080421493099</v>
+      </c>
+      <c r="Q21">
+        <v>7.963783850518222</v>
+      </c>
+      <c r="R21">
+        <v>71.674054654664</v>
+      </c>
+      <c r="S21">
+        <v>0.008069828333022422</v>
+      </c>
+      <c r="T21">
+        <v>0.008069828333022423</v>
       </c>
     </row>
   </sheetData>
